--- a/Asgn_Parallel_Sort.xlsx
+++ b/Asgn_Parallel_Sort.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MSIS\2_Spring22\Info_6205_Algo\Assignments\Assignment4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EF5B09F-3E3B-4C33-854F-3BB332DB5D6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36DE4D59-1D86-4EB5-9FDA-C9B8403A6750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D2C3BF45-F247-4C5A-9DD1-349AC937C189}"/>
   </bookViews>
@@ -80,13 +80,13 @@
     <t>Min</t>
   </si>
   <si>
-    <t>For 10 Million array size</t>
-  </si>
-  <si>
     <t>Array Size in Millions</t>
   </si>
   <si>
     <t>No.of threads for optimal run of algorithm</t>
+  </si>
+  <si>
+    <t>For 8 Million array size</t>
   </si>
 </sst>
 </file>
@@ -127,7 +127,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -135,11 +135,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -147,6 +162,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -187,7 +211,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -201,11 +225,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t> Time</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> taken for 4 Million elements</a:t>
+              <a:t> 4 Million elements</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -223,7 +243,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -270,6 +290,63 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$B$17:$B$22</c:f>
@@ -277,22 +354,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>100000</c:v>
+                  <c:v>120000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200000</c:v>
+                  <c:v>240000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>400000</c:v>
+                  <c:v>480000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>800000</c:v>
+                  <c:v>960000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1600000</c:v>
+                  <c:v>1920000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3200000</c:v>
+                  <c:v>3840000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -304,22 +381,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>4015</c:v>
+                  <c:v>3618</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3373</c:v>
+                  <c:v>3659</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3436</c:v>
+                  <c:v>3889</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2496</c:v>
+                  <c:v>2675</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2156</c:v>
+                  <c:v>2390</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2786</c:v>
+                  <c:v>2886</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -354,6 +431,63 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$B$17:$B$22</c:f>
@@ -361,22 +495,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>100000</c:v>
+                  <c:v>120000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200000</c:v>
+                  <c:v>240000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>400000</c:v>
+                  <c:v>480000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>800000</c:v>
+                  <c:v>960000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1600000</c:v>
+                  <c:v>1920000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3200000</c:v>
+                  <c:v>3840000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -388,22 +522,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3350</c:v>
+                  <c:v>3617</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3499</c:v>
+                  <c:v>3812</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3426</c:v>
+                  <c:v>3633</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2447</c:v>
+                  <c:v>2661</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2171</c:v>
+                  <c:v>2353</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2737</c:v>
+                  <c:v>2833</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -438,6 +572,63 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$B$17:$B$22</c:f>
@@ -445,22 +636,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>100000</c:v>
+                  <c:v>120000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200000</c:v>
+                  <c:v>240000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>400000</c:v>
+                  <c:v>480000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>800000</c:v>
+                  <c:v>960000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1600000</c:v>
+                  <c:v>1920000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3200000</c:v>
+                  <c:v>3840000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -472,22 +663,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3584</c:v>
+                  <c:v>3597</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3283</c:v>
+                  <c:v>3810</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3397</c:v>
+                  <c:v>3772</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2430</c:v>
+                  <c:v>2575</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2168</c:v>
+                  <c:v>2307</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2835</c:v>
+                  <c:v>2761</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -522,6 +713,63 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$B$17:$B$22</c:f>
@@ -529,22 +777,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>100000</c:v>
+                  <c:v>120000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200000</c:v>
+                  <c:v>240000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>400000</c:v>
+                  <c:v>480000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>800000</c:v>
+                  <c:v>960000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1600000</c:v>
+                  <c:v>1920000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3200000</c:v>
+                  <c:v>3840000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -556,22 +804,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3120</c:v>
+                  <c:v>3481</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3330</c:v>
+                  <c:v>3661</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3276</c:v>
+                  <c:v>3744</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2457</c:v>
+                  <c:v>2685</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2047</c:v>
+                  <c:v>2268</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2762</c:v>
+                  <c:v>2857</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -606,6 +854,63 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$B$17:$B$22</c:f>
@@ -613,22 +918,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>100000</c:v>
+                  <c:v>120000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200000</c:v>
+                  <c:v>240000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>400000</c:v>
+                  <c:v>480000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>800000</c:v>
+                  <c:v>960000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1600000</c:v>
+                  <c:v>1920000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3200000</c:v>
+                  <c:v>3840000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -640,22 +945,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3371</c:v>
+                  <c:v>3656</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3301</c:v>
+                  <c:v>3766</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3303</c:v>
+                  <c:v>7731</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2396</c:v>
+                  <c:v>8654</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2090</c:v>
+                  <c:v>7240</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2763</c:v>
+                  <c:v>9883</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -690,6 +995,63 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$B$17:$B$22</c:f>
@@ -697,22 +1059,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>100000</c:v>
+                  <c:v>120000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200000</c:v>
+                  <c:v>240000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>400000</c:v>
+                  <c:v>480000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>800000</c:v>
+                  <c:v>960000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1600000</c:v>
+                  <c:v>1920000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3200000</c:v>
+                  <c:v>3840000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -724,22 +1086,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3471</c:v>
+                  <c:v>9776</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3464</c:v>
+                  <c:v>10353</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3276</c:v>
+                  <c:v>11315</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2412</c:v>
+                  <c:v>8504</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2104</c:v>
+                  <c:v>7235</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2862</c:v>
+                  <c:v>10164</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -751,14 +1113,16 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
+        <c:gapWidth val="444"/>
+        <c:overlap val="-90"/>
         <c:axId val="265563759"/>
         <c:axId val="265561263"/>
       </c:barChart>
@@ -792,8 +1156,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -805,7 +1169,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -833,59 +1197,12 @@
           <c:orientation val="minMax"/>
           <c:min val="1500"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="265563759"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -899,7 +1216,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -942,7 +1259,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -988,6 +1305,44 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1" i="0" cap="all" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> 2 Million elements</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1600">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.28849010022613392"/>
+          <c:y val="2.8081999438360011E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1001,7 +1356,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1048,6 +1403,63 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$B$3:$B$8</c:f>
@@ -1055,22 +1467,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>50000</c:v>
+                  <c:v>30000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100000</c:v>
+                  <c:v>60000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>200000</c:v>
+                  <c:v>120000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400000</c:v>
+                  <c:v>240000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>800000</c:v>
+                  <c:v>480000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1600000</c:v>
+                  <c:v>960000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1082,22 +1494,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2215</c:v>
+                  <c:v>2436</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1713</c:v>
+                  <c:v>2191</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1738</c:v>
+                  <c:v>2150</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1226</c:v>
+                  <c:v>2030</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1107</c:v>
+                  <c:v>1346</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1438</c:v>
+                  <c:v>1063</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1132,6 +1544,63 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$B$3:$B$8</c:f>
@@ -1139,22 +1608,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>50000</c:v>
+                  <c:v>30000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100000</c:v>
+                  <c:v>60000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>200000</c:v>
+                  <c:v>120000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400000</c:v>
+                  <c:v>240000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>800000</c:v>
+                  <c:v>480000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1600000</c:v>
+                  <c:v>960000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1166,22 +1635,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1762</c:v>
+                  <c:v>1697</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1686</c:v>
+                  <c:v>1858</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1708</c:v>
+                  <c:v>2105</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1210</c:v>
+                  <c:v>1913</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1062</c:v>
+                  <c:v>1501</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1452</c:v>
+                  <c:v>1301</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1216,6 +1685,63 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$B$3:$B$8</c:f>
@@ -1223,22 +1749,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>50000</c:v>
+                  <c:v>30000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100000</c:v>
+                  <c:v>60000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>200000</c:v>
+                  <c:v>120000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400000</c:v>
+                  <c:v>240000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>800000</c:v>
+                  <c:v>480000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1600000</c:v>
+                  <c:v>960000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1250,22 +1776,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1614</c:v>
+                  <c:v>1857</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1638</c:v>
+                  <c:v>2319</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2612</c:v>
+                  <c:v>5116</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2611</c:v>
+                  <c:v>5054</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2238</c:v>
+                  <c:v>4141</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3060</c:v>
+                  <c:v>3455</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1300,6 +1826,63 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$B$3:$B$8</c:f>
@@ -1307,22 +1890,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>50000</c:v>
+                  <c:v>30000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100000</c:v>
+                  <c:v>60000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>200000</c:v>
+                  <c:v>120000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400000</c:v>
+                  <c:v>240000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>800000</c:v>
+                  <c:v>480000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1600000</c:v>
+                  <c:v>960000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1334,22 +1917,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3084</c:v>
+                  <c:v>4627</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3162</c:v>
+                  <c:v>4864</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3797</c:v>
+                  <c:v>5065</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2249</c:v>
+                  <c:v>5322</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2260</c:v>
+                  <c:v>4153</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3297</c:v>
+                  <c:v>3564</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1384,6 +1967,63 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$B$3:$B$8</c:f>
@@ -1391,22 +2031,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>50000</c:v>
+                  <c:v>30000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100000</c:v>
+                  <c:v>60000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>200000</c:v>
+                  <c:v>120000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400000</c:v>
+                  <c:v>240000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>800000</c:v>
+                  <c:v>480000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1600000</c:v>
+                  <c:v>960000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1418,22 +2058,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3096</c:v>
+                  <c:v>4539</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2845</c:v>
+                  <c:v>4751</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3646</c:v>
+                  <c:v>4750</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2639</c:v>
+                  <c:v>5102</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2171</c:v>
+                  <c:v>4073</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3300</c:v>
+                  <c:v>3398</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1468,6 +2108,63 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$B$3:$B$8</c:f>
@@ -1475,22 +2172,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>50000</c:v>
+                  <c:v>30000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100000</c:v>
+                  <c:v>60000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>200000</c:v>
+                  <c:v>120000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400000</c:v>
+                  <c:v>240000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>800000</c:v>
+                  <c:v>480000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1600000</c:v>
+                  <c:v>960000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1502,22 +2199,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2844</c:v>
+                  <c:v>4104</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2936</c:v>
+                  <c:v>4882</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3448</c:v>
+                  <c:v>4861</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2585</c:v>
+                  <c:v>5321</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2242</c:v>
+                  <c:v>4003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3161</c:v>
+                  <c:v>3203</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1529,14 +2226,16 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
+        <c:gapWidth val="444"/>
+        <c:overlap val="-90"/>
         <c:axId val="2048299264"/>
         <c:axId val="315338160"/>
       </c:barChart>
@@ -1570,8 +2269,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1583,7 +2282,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1610,59 +2309,12 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="2048299264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -1676,7 +2328,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1719,7 +2371,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -1765,6 +2417,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1" i="0" cap="all" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> 8 Million elements</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1600">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1778,7 +2460,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1825,6 +2507,63 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$B$31:$B$36</c:f>
@@ -1832,22 +2571,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>200000</c:v>
+                  <c:v>240000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>400000</c:v>
+                  <c:v>480000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>800000</c:v>
+                  <c:v>960000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1600000</c:v>
+                  <c:v>1920000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3200000</c:v>
+                  <c:v>3840000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6400000</c:v>
+                  <c:v>7680000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1859,22 +2598,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>9779</c:v>
+                  <c:v>8458</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9994</c:v>
+                  <c:v>7183</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9777</c:v>
+                  <c:v>7235</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6897</c:v>
+                  <c:v>5237</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5559</c:v>
+                  <c:v>4357</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7245</c:v>
+                  <c:v>5846</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1909,6 +2648,63 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$B$31:$B$36</c:f>
@@ -1916,22 +2712,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>200000</c:v>
+                  <c:v>240000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>400000</c:v>
+                  <c:v>480000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>800000</c:v>
+                  <c:v>960000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1600000</c:v>
+                  <c:v>1920000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3200000</c:v>
+                  <c:v>3840000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6400000</c:v>
+                  <c:v>7680000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1943,22 +2739,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>9279</c:v>
+                  <c:v>6918</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9387</c:v>
+                  <c:v>9622</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9284</c:v>
+                  <c:v>9428</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6655</c:v>
+                  <c:v>5385</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5397</c:v>
+                  <c:v>4550</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7269</c:v>
+                  <c:v>5751</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1993,6 +2789,63 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$B$31:$B$36</c:f>
@@ -2000,22 +2853,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>200000</c:v>
+                  <c:v>240000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>400000</c:v>
+                  <c:v>480000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>800000</c:v>
+                  <c:v>960000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1600000</c:v>
+                  <c:v>1920000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3200000</c:v>
+                  <c:v>3840000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6400000</c:v>
+                  <c:v>7680000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2027,22 +2880,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>9196</c:v>
+                  <c:v>7170</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9072</c:v>
+                  <c:v>7308</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9776</c:v>
+                  <c:v>21991</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6701</c:v>
+                  <c:v>17032</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5558</c:v>
+                  <c:v>14880</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7203</c:v>
+                  <c:v>20702</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2077,6 +2930,63 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$B$31:$B$36</c:f>
@@ -2084,22 +2994,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>200000</c:v>
+                  <c:v>240000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>400000</c:v>
+                  <c:v>480000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>800000</c:v>
+                  <c:v>960000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1600000</c:v>
+                  <c:v>1920000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3200000</c:v>
+                  <c:v>3840000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6400000</c:v>
+                  <c:v>7680000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2111,22 +3021,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>9693</c:v>
+                  <c:v>19152</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8494</c:v>
+                  <c:v>20371</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9445</c:v>
+                  <c:v>23789</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6676</c:v>
+                  <c:v>17708</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5437</c:v>
+                  <c:v>7626</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7458</c:v>
+                  <c:v>6106</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2161,6 +3071,63 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$B$31:$B$36</c:f>
@@ -2168,22 +3135,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>200000</c:v>
+                  <c:v>240000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>400000</c:v>
+                  <c:v>480000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>800000</c:v>
+                  <c:v>960000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1600000</c:v>
+                  <c:v>1920000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3200000</c:v>
+                  <c:v>3840000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6400000</c:v>
+                  <c:v>7680000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2195,22 +3162,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>15525</c:v>
+                  <c:v>6953</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13322</c:v>
+                  <c:v>11445</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9372</c:v>
+                  <c:v>8224</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6654</c:v>
+                  <c:v>5571</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5476</c:v>
+                  <c:v>4853</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7322</c:v>
+                  <c:v>5987</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2245,6 +3212,63 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$B$31:$B$36</c:f>
@@ -2252,22 +3276,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>200000</c:v>
+                  <c:v>240000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>400000</c:v>
+                  <c:v>480000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>800000</c:v>
+                  <c:v>960000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1600000</c:v>
+                  <c:v>1920000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3200000</c:v>
+                  <c:v>3840000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6400000</c:v>
+                  <c:v>7680000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2279,22 +3303,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>9062</c:v>
+                  <c:v>6871</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8793</c:v>
+                  <c:v>7391</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8825</c:v>
+                  <c:v>7304</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6811</c:v>
+                  <c:v>5175</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5496</c:v>
+                  <c:v>4489</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7195</c:v>
+                  <c:v>6193</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2306,14 +3330,16 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
+        <c:gapWidth val="444"/>
+        <c:overlap val="-90"/>
         <c:axId val="314905136"/>
         <c:axId val="314903888"/>
       </c:barChart>
@@ -2347,8 +3373,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -2360,7 +3386,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2388,59 +3414,12 @@
           <c:orientation val="minMax"/>
           <c:min val="3000"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="314905136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -2454,7 +3433,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2497,7 +3476,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -2556,7 +3535,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2593,7 +3572,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -2602,8 +3581,8 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -2612,6 +3591,7 @@
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -2629,7 +3609,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2699,9 +3679,9 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -2761,9 +3741,9 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -2815,7 +3795,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -3007,7 +3987,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3018,7 +3998,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -3034,25 +4014,25 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
@@ -3064,7 +4044,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -3072,11 +4052,14 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -3108,35 +4091,45 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -3148,22 +4141,26 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -3193,15 +4190,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3211,7 +4206,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -3220,7 +4215,43 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
@@ -3230,65 +4261,125 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -3301,54 +4392,17 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -3358,8 +4412,8 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
+  </cs:seriesLine>
+  <cs:title>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -3369,66 +4423,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -3437,14 +4432,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -3458,27 +4453,26 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -3495,9 +4489,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3510,20 +4504,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3534,7 +4522,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -3550,25 +4538,25 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
@@ -3580,7 +4568,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -3588,11 +4576,14 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -3624,35 +4615,45 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -3664,22 +4665,26 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -3709,15 +4714,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3727,7 +4730,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -3736,7 +4739,43 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
@@ -3746,65 +4785,125 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -3817,54 +4916,17 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -3874,8 +4936,8 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
+  </cs:seriesLine>
+  <cs:title>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -3885,66 +4947,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -3953,14 +4956,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -3974,27 +4977,26 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -4011,9 +5013,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4026,20 +5028,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4050,7 +5046,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -4066,25 +5062,25 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
@@ -4096,7 +5092,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -4104,11 +5100,14 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -4140,35 +5139,45 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -4180,22 +5189,26 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -4225,15 +5238,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -4243,7 +5254,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -4252,7 +5263,43 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
@@ -4262,65 +5309,125 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -4333,54 +5440,17 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -4390,8 +5460,8 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
+  </cs:seriesLine>
+  <cs:title>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -4401,66 +5471,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -4469,14 +5480,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -4490,27 +5501,26 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -4527,9 +5537,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4542,20 +5552,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="241">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4566,7 +5570,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -4582,25 +5586,25 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
@@ -4612,7 +5616,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -4620,11 +5624,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -4656,35 +5660,45 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -4696,22 +5710,26 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -4741,15 +5759,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -4759,7 +5775,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -4768,7 +5784,43 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
@@ -4778,65 +5830,125 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -4849,54 +5961,17 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -4906,8 +5981,8 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
+  </cs:seriesLine>
+  <cs:title>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -4917,66 +5992,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -4985,14 +6001,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -5006,27 +6021,26 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -5043,9 +6057,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5058,14 +6072,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -5074,16 +6082,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1905</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>83343</xdr:rowOff>
+      <xdr:rowOff>167163</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>24765</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5110,16 +6118,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>292892</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>3332</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>604837</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>51435</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5147,15 +6155,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>369093</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>130968</xdr:rowOff>
+      <xdr:colOff>597692</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>1428</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>407193</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>159543</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>7619</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>30003</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5524,7 +6532,7 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L48" sqref="L48"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5567,141 +6575,141 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="2">
-        <v>50000</v>
-      </c>
-      <c r="C3" s="2">
-        <v>2215</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1762</v>
-      </c>
-      <c r="E3" s="4">
-        <v>1614</v>
-      </c>
-      <c r="F3" s="2">
-        <v>3084</v>
-      </c>
-      <c r="G3" s="2">
-        <v>3096</v>
-      </c>
-      <c r="H3" s="2">
-        <v>2844</v>
+      <c r="B3">
+        <v>30000</v>
+      </c>
+      <c r="C3">
+        <v>2436</v>
+      </c>
+      <c r="D3">
+        <v>1697</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1857</v>
+      </c>
+      <c r="F3">
+        <v>4627</v>
+      </c>
+      <c r="G3">
+        <v>4539</v>
+      </c>
+      <c r="H3">
+        <v>4104</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="2">
-        <v>100000</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1713</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1686</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1638</v>
-      </c>
-      <c r="F4" s="2">
-        <v>3162</v>
-      </c>
-      <c r="G4" s="2">
-        <v>2845</v>
-      </c>
-      <c r="H4" s="2">
-        <v>2936</v>
+      <c r="B4">
+        <v>60000</v>
+      </c>
+      <c r="C4">
+        <v>2191</v>
+      </c>
+      <c r="D4">
+        <v>1858</v>
+      </c>
+      <c r="E4">
+        <v>2319</v>
+      </c>
+      <c r="F4">
+        <v>4864</v>
+      </c>
+      <c r="G4">
+        <v>4751</v>
+      </c>
+      <c r="H4">
+        <v>4882</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="2">
-        <v>200000</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1738</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1708</v>
-      </c>
-      <c r="E5" s="2">
-        <v>2612</v>
-      </c>
-      <c r="F5" s="2">
-        <v>3797</v>
-      </c>
-      <c r="G5" s="2">
-        <v>3646</v>
-      </c>
-      <c r="H5" s="2">
-        <v>3448</v>
+      <c r="B5">
+        <v>120000</v>
+      </c>
+      <c r="C5">
+        <v>2150</v>
+      </c>
+      <c r="D5">
+        <v>2105</v>
+      </c>
+      <c r="E5">
+        <v>5116</v>
+      </c>
+      <c r="F5">
+        <v>5065</v>
+      </c>
+      <c r="G5">
+        <v>4750</v>
+      </c>
+      <c r="H5">
+        <v>4861</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="2">
-        <v>400000</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1226</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1210</v>
-      </c>
-      <c r="E6" s="2">
-        <v>2611</v>
-      </c>
-      <c r="F6" s="4">
-        <v>2249</v>
-      </c>
-      <c r="G6" s="2">
-        <v>2639</v>
-      </c>
-      <c r="H6" s="2">
-        <v>2585</v>
+      <c r="B6">
+        <v>240000</v>
+      </c>
+      <c r="C6">
+        <v>2030</v>
+      </c>
+      <c r="D6">
+        <v>1913</v>
+      </c>
+      <c r="E6">
+        <v>5054</v>
+      </c>
+      <c r="F6">
+        <v>5322</v>
+      </c>
+      <c r="G6">
+        <v>5102</v>
+      </c>
+      <c r="H6">
+        <v>5321</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="2">
-        <v>800000</v>
-      </c>
-      <c r="C7" s="4">
-        <v>1107</v>
-      </c>
-      <c r="D7" s="4">
-        <v>1062</v>
-      </c>
-      <c r="E7" s="2">
-        <v>2238</v>
-      </c>
-      <c r="F7" s="2">
-        <v>2260</v>
-      </c>
-      <c r="G7" s="4">
-        <v>2171</v>
-      </c>
-      <c r="H7" s="4">
-        <v>2242</v>
+      <c r="B7">
+        <v>480000</v>
+      </c>
+      <c r="C7">
+        <v>1346</v>
+      </c>
+      <c r="D7">
+        <v>1501</v>
+      </c>
+      <c r="E7">
+        <v>4141</v>
+      </c>
+      <c r="F7">
+        <v>4153</v>
+      </c>
+      <c r="G7">
+        <v>4073</v>
+      </c>
+      <c r="H7">
+        <v>4003</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="2">
-        <v>1600000</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1438</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1452</v>
-      </c>
-      <c r="E8" s="2">
-        <v>3060</v>
-      </c>
-      <c r="F8" s="2">
-        <v>3297</v>
-      </c>
-      <c r="G8" s="2">
-        <v>3300</v>
-      </c>
-      <c r="H8" s="2">
-        <v>3161</v>
+      <c r="B8">
+        <v>960000</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1063</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1301</v>
+      </c>
+      <c r="E8" s="5">
+        <v>3455</v>
+      </c>
+      <c r="F8" s="1">
+        <v>3564</v>
+      </c>
+      <c r="G8" s="1">
+        <v>3398</v>
+      </c>
+      <c r="H8" s="1">
+        <v>3203</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -5711,27 +6719,27 @@
       <c r="B9" s="2"/>
       <c r="C9" s="4">
         <f t="shared" ref="C9:H9" si="0">MIN(C3:C8)</f>
-        <v>1107</v>
+        <v>1063</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="0"/>
-        <v>1062</v>
+        <v>1301</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="0"/>
-        <v>1614</v>
+        <v>1857</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="0"/>
-        <v>2249</v>
+        <v>3564</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="0"/>
-        <v>2171</v>
+        <v>3398</v>
       </c>
       <c r="H9" s="1">
         <f t="shared" si="0"/>
-        <v>2242</v>
+        <v>3203</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -5740,27 +6748,27 @@
       </c>
       <c r="C10" s="1">
         <f t="shared" ref="C10:H10" si="1">AVERAGE(C3:C8)</f>
-        <v>1572.8333333333333</v>
+        <v>1869.3333333333333</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="1"/>
-        <v>1480</v>
+        <v>1729.1666666666667</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="1"/>
-        <v>2295.5</v>
+        <v>3657</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="1"/>
-        <v>2974.8333333333335</v>
+        <v>4599.166666666667</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="1"/>
-        <v>2949.5</v>
+        <v>4435.5</v>
       </c>
       <c r="H10" s="1">
         <f t="shared" si="1"/>
-        <v>2869.3333333333335</v>
+        <v>4395.666666666667</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -5769,27 +6777,27 @@
       </c>
       <c r="C11" s="1">
         <f t="shared" ref="C11:H11" si="2">MAX(C3:C10)</f>
-        <v>2215</v>
+        <v>2436</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="2"/>
-        <v>1762</v>
+        <v>2105</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="2"/>
-        <v>3060</v>
+        <v>5116</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="2"/>
-        <v>3797</v>
+        <v>5322</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" si="2"/>
-        <v>3646</v>
+        <v>5102</v>
       </c>
       <c r="H11" s="1">
         <f t="shared" si="2"/>
-        <v>3448</v>
+        <v>5321</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -5827,141 +6835,141 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="2">
-        <v>100000</v>
-      </c>
-      <c r="C17" s="2">
-        <v>4015</v>
-      </c>
-      <c r="D17" s="2">
-        <v>3350</v>
-      </c>
-      <c r="E17" s="2">
-        <v>3584</v>
-      </c>
-      <c r="F17" s="2">
-        <v>3120</v>
-      </c>
-      <c r="G17" s="2">
-        <v>3371</v>
-      </c>
-      <c r="H17" s="2">
-        <v>3471</v>
+      <c r="B17">
+        <v>120000</v>
+      </c>
+      <c r="C17">
+        <v>3618</v>
+      </c>
+      <c r="D17">
+        <v>3617</v>
+      </c>
+      <c r="E17">
+        <v>3597</v>
+      </c>
+      <c r="F17">
+        <v>3481</v>
+      </c>
+      <c r="G17" s="1">
+        <v>3656</v>
+      </c>
+      <c r="H17">
+        <v>9776</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="2">
-        <v>200000</v>
-      </c>
-      <c r="C18" s="2">
-        <v>3373</v>
-      </c>
-      <c r="D18" s="2">
-        <v>3499</v>
-      </c>
-      <c r="E18" s="2">
-        <v>3283</v>
-      </c>
-      <c r="F18" s="2">
-        <v>3330</v>
-      </c>
-      <c r="G18" s="2">
-        <v>3301</v>
-      </c>
-      <c r="H18" s="2">
-        <v>3464</v>
+      <c r="B18">
+        <v>240000</v>
+      </c>
+      <c r="C18">
+        <v>3659</v>
+      </c>
+      <c r="D18">
+        <v>3812</v>
+      </c>
+      <c r="E18">
+        <v>3810</v>
+      </c>
+      <c r="F18">
+        <v>3661</v>
+      </c>
+      <c r="G18">
+        <v>3766</v>
+      </c>
+      <c r="H18">
+        <v>10353</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="2">
-        <v>400000</v>
-      </c>
-      <c r="C19" s="2">
-        <v>3436</v>
-      </c>
-      <c r="D19" s="2">
-        <v>3426</v>
-      </c>
-      <c r="E19" s="2">
-        <v>3397</v>
-      </c>
-      <c r="F19" s="2">
-        <v>3276</v>
-      </c>
-      <c r="G19" s="2">
-        <v>3303</v>
-      </c>
-      <c r="H19" s="2">
-        <v>3276</v>
+      <c r="B19">
+        <v>480000</v>
+      </c>
+      <c r="C19">
+        <v>3889</v>
+      </c>
+      <c r="D19">
+        <v>3633</v>
+      </c>
+      <c r="E19">
+        <v>3772</v>
+      </c>
+      <c r="F19">
+        <v>3744</v>
+      </c>
+      <c r="G19">
+        <v>7731</v>
+      </c>
+      <c r="H19">
+        <v>11315</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="2">
-        <v>800000</v>
-      </c>
-      <c r="C20" s="2">
-        <v>2496</v>
-      </c>
-      <c r="D20" s="2">
-        <v>2447</v>
-      </c>
-      <c r="E20" s="2">
-        <v>2430</v>
-      </c>
-      <c r="F20" s="2">
-        <v>2457</v>
-      </c>
-      <c r="G20" s="2">
-        <v>2396</v>
-      </c>
-      <c r="H20" s="2">
-        <v>2412</v>
+      <c r="B20">
+        <v>960000</v>
+      </c>
+      <c r="C20">
+        <v>2675</v>
+      </c>
+      <c r="D20">
+        <v>2661</v>
+      </c>
+      <c r="E20">
+        <v>2575</v>
+      </c>
+      <c r="F20">
+        <v>2685</v>
+      </c>
+      <c r="G20">
+        <v>8654</v>
+      </c>
+      <c r="H20">
+        <v>8504</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="2">
-        <v>1600000</v>
-      </c>
-      <c r="C21" s="4">
-        <v>2156</v>
-      </c>
-      <c r="D21" s="4">
-        <v>2171</v>
-      </c>
-      <c r="E21" s="4">
-        <v>2168</v>
-      </c>
-      <c r="F21" s="4">
-        <v>2047</v>
-      </c>
-      <c r="G21" s="4">
-        <v>2090</v>
-      </c>
-      <c r="H21" s="4">
-        <v>2104</v>
+      <c r="B21">
+        <v>1920000</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2390</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2353</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2307</v>
+      </c>
+      <c r="F21" s="1">
+        <v>2268</v>
+      </c>
+      <c r="G21" s="5">
+        <v>7240</v>
+      </c>
+      <c r="H21" s="1">
+        <v>7235</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="2">
-        <v>3200000</v>
-      </c>
-      <c r="C22" s="2">
-        <v>2786</v>
-      </c>
-      <c r="D22" s="2">
-        <v>2737</v>
-      </c>
-      <c r="E22" s="2">
-        <v>2835</v>
-      </c>
-      <c r="F22" s="2">
-        <v>2762</v>
-      </c>
-      <c r="G22" s="2">
-        <v>2763</v>
-      </c>
-      <c r="H22" s="2">
-        <v>2862</v>
+      <c r="B22">
+        <v>3840000</v>
+      </c>
+      <c r="C22">
+        <v>2886</v>
+      </c>
+      <c r="D22">
+        <v>2833</v>
+      </c>
+      <c r="E22">
+        <v>2761</v>
+      </c>
+      <c r="F22">
+        <v>2857</v>
+      </c>
+      <c r="G22">
+        <v>9883</v>
+      </c>
+      <c r="H22">
+        <v>10164</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -5970,27 +6978,27 @@
       </c>
       <c r="C23" s="1">
         <f t="shared" ref="C23:H23" si="3">MIN(C17:C22)</f>
-        <v>2156</v>
+        <v>2390</v>
       </c>
       <c r="D23" s="1">
         <f t="shared" si="3"/>
-        <v>2171</v>
+        <v>2353</v>
       </c>
       <c r="E23" s="1">
         <f t="shared" si="3"/>
-        <v>2168</v>
+        <v>2307</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" si="3"/>
-        <v>2047</v>
+        <v>2268</v>
       </c>
       <c r="G23" s="1">
         <f t="shared" si="3"/>
-        <v>2090</v>
+        <v>3656</v>
       </c>
       <c r="H23" s="1">
         <f t="shared" si="3"/>
-        <v>2104</v>
+        <v>7235</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -5999,27 +7007,27 @@
       </c>
       <c r="C24" s="1">
         <f t="shared" ref="C24:H24" si="4">AVERAGE(C17:C22)</f>
-        <v>3043.6666666666665</v>
+        <v>3186.1666666666665</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" si="4"/>
-        <v>2938.3333333333335</v>
+        <v>3151.5</v>
       </c>
       <c r="E24" s="1">
         <f t="shared" si="4"/>
-        <v>2949.5</v>
+        <v>3137</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" si="4"/>
-        <v>2832</v>
+        <v>3116</v>
       </c>
       <c r="G24" s="1">
         <f t="shared" si="4"/>
-        <v>2870.6666666666665</v>
+        <v>6821.666666666667</v>
       </c>
       <c r="H24" s="1">
         <f t="shared" si="4"/>
-        <v>2931.5</v>
+        <v>9557.8333333333339</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -6028,32 +7036,32 @@
       </c>
       <c r="C25" s="1">
         <f t="shared" ref="C25:H25" si="5">MAX(C17:C24)</f>
-        <v>4015</v>
+        <v>3889</v>
       </c>
       <c r="D25" s="1">
         <f t="shared" si="5"/>
-        <v>3499</v>
+        <v>3812</v>
       </c>
       <c r="E25" s="1">
         <f t="shared" si="5"/>
-        <v>3584</v>
+        <v>3810</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" si="5"/>
-        <v>3330</v>
+        <v>3744</v>
       </c>
       <c r="G25" s="1">
         <f t="shared" si="5"/>
-        <v>3371</v>
+        <v>9883</v>
       </c>
       <c r="H25" s="1">
         <f t="shared" si="5"/>
-        <v>3471</v>
+        <v>11315</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F29" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -6081,140 +7089,140 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B31">
-        <v>200000</v>
+        <v>240000</v>
       </c>
       <c r="C31">
-        <v>9779</v>
+        <v>8458</v>
       </c>
       <c r="D31">
-        <v>9279</v>
-      </c>
-      <c r="E31">
-        <v>9196</v>
+        <v>6918</v>
+      </c>
+      <c r="E31" s="1">
+        <v>7170</v>
       </c>
       <c r="F31">
-        <v>9693</v>
+        <v>19152</v>
       </c>
       <c r="G31">
-        <v>15525</v>
+        <v>6953</v>
       </c>
       <c r="H31">
-        <v>9062</v>
+        <v>6871</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B32">
-        <v>400000</v>
+        <v>480000</v>
       </c>
       <c r="C32">
-        <v>9994</v>
+        <v>7183</v>
       </c>
       <c r="D32">
-        <v>9387</v>
+        <v>9622</v>
       </c>
       <c r="E32">
-        <v>9072</v>
+        <v>7308</v>
       </c>
       <c r="F32">
-        <v>8494</v>
+        <v>20371</v>
       </c>
       <c r="G32">
-        <v>13322</v>
+        <v>11445</v>
       </c>
       <c r="H32">
-        <v>8793</v>
+        <v>7391</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B33">
-        <v>800000</v>
+        <v>960000</v>
       </c>
       <c r="C33">
-        <v>9777</v>
+        <v>7235</v>
       </c>
       <c r="D33">
-        <v>9284</v>
+        <v>9428</v>
       </c>
       <c r="E33">
-        <v>9776</v>
+        <v>21991</v>
       </c>
       <c r="F33">
-        <v>9445</v>
+        <v>23789</v>
       </c>
       <c r="G33">
-        <v>9372</v>
+        <v>8224</v>
       </c>
       <c r="H33">
-        <v>8825</v>
+        <v>7304</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B34">
-        <v>1600000</v>
+        <v>1920000</v>
       </c>
       <c r="C34">
-        <v>6897</v>
+        <v>5237</v>
       </c>
       <c r="D34">
-        <v>6655</v>
+        <v>5385</v>
       </c>
       <c r="E34">
-        <v>6701</v>
+        <v>17032</v>
       </c>
       <c r="F34">
-        <v>6676</v>
+        <v>17708</v>
       </c>
       <c r="G34">
-        <v>6654</v>
+        <v>5571</v>
       </c>
       <c r="H34">
-        <v>6811</v>
+        <v>5175</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B35">
-        <v>3200000</v>
+        <v>3840000</v>
       </c>
       <c r="C35" s="1">
-        <v>5559</v>
+        <v>4357</v>
       </c>
       <c r="D35" s="1">
-        <v>5397</v>
-      </c>
-      <c r="E35" s="1">
-        <v>5558</v>
-      </c>
-      <c r="F35" s="1">
-        <v>5437</v>
+        <v>4550</v>
+      </c>
+      <c r="E35" s="5">
+        <v>14880</v>
+      </c>
+      <c r="F35" s="5">
+        <v>7626</v>
       </c>
       <c r="G35" s="1">
-        <v>5476</v>
+        <v>4853</v>
       </c>
       <c r="H35" s="1">
-        <v>5496</v>
+        <v>4489</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B36">
-        <v>6400000</v>
+        <v>7680000</v>
       </c>
       <c r="C36">
-        <v>7245</v>
+        <v>5846</v>
       </c>
       <c r="D36">
-        <v>7269</v>
+        <v>5751</v>
       </c>
       <c r="E36">
-        <v>7203</v>
-      </c>
-      <c r="F36">
-        <v>7458</v>
+        <v>20702</v>
+      </c>
+      <c r="F36" s="1">
+        <v>6106</v>
       </c>
       <c r="G36">
-        <v>7322</v>
+        <v>5987</v>
       </c>
       <c r="H36">
-        <v>7195</v>
+        <v>6193</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
@@ -6223,27 +7231,27 @@
       </c>
       <c r="C37" s="1">
         <f t="shared" ref="C37:H37" si="6">MIN(C31:C36)</f>
-        <v>5559</v>
+        <v>4357</v>
       </c>
       <c r="D37" s="1">
         <f t="shared" si="6"/>
-        <v>5397</v>
+        <v>4550</v>
       </c>
       <c r="E37" s="1">
         <f t="shared" si="6"/>
-        <v>5558</v>
+        <v>7170</v>
       </c>
       <c r="F37" s="1">
         <f t="shared" si="6"/>
-        <v>5437</v>
+        <v>6106</v>
       </c>
       <c r="G37" s="1">
         <f t="shared" si="6"/>
-        <v>5476</v>
+        <v>4853</v>
       </c>
       <c r="H37" s="1">
         <f t="shared" si="6"/>
-        <v>5496</v>
+        <v>4489</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
@@ -6252,27 +7260,27 @@
       </c>
       <c r="C38" s="1">
         <f t="shared" ref="C38:H38" si="7">AVERAGE(C31:C36)</f>
-        <v>8208.5</v>
+        <v>6386</v>
       </c>
       <c r="D38" s="1">
         <f t="shared" si="7"/>
-        <v>7878.5</v>
+        <v>6942.333333333333</v>
       </c>
       <c r="E38" s="1">
         <f t="shared" si="7"/>
-        <v>7917.666666666667</v>
+        <v>14847.166666666666</v>
       </c>
       <c r="F38" s="1">
         <f t="shared" si="7"/>
-        <v>7867.166666666667</v>
+        <v>15792</v>
       </c>
       <c r="G38" s="1">
         <f t="shared" si="7"/>
-        <v>9611.8333333333339</v>
+        <v>7172.166666666667</v>
       </c>
       <c r="H38" s="1">
         <f t="shared" si="7"/>
-        <v>7697</v>
+        <v>6237.166666666667</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
@@ -6281,27 +7289,27 @@
       </c>
       <c r="C39" s="1">
         <f t="shared" ref="C39:H39" si="8">MAX(C31:C38)</f>
-        <v>9994</v>
+        <v>8458</v>
       </c>
       <c r="D39" s="1">
         <f t="shared" si="8"/>
-        <v>9387</v>
+        <v>9622</v>
       </c>
       <c r="E39" s="1">
         <f t="shared" si="8"/>
-        <v>9776</v>
+        <v>21991</v>
       </c>
       <c r="F39" s="1">
         <f t="shared" si="8"/>
-        <v>9693</v>
+        <v>23789</v>
       </c>
       <c r="G39" s="1">
         <f t="shared" si="8"/>
-        <v>15525</v>
+        <v>11445</v>
       </c>
       <c r="H39" s="1">
         <f t="shared" si="8"/>
-        <v>9062</v>
+        <v>7391</v>
       </c>
     </row>
   </sheetData>
@@ -6315,14 +7323,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42E2BCDF-2E76-4766-B004-794A65D26256}">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M30" sqref="M11:M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -6441,11 +7449,11 @@
       <c r="A15" s="2"/>
       <c r="C15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="I15" s="2"/>
       <c r="K15" s="2"/>
@@ -6454,10 +7462,10 @@
       <c r="A16" s="2"/>
       <c r="C16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16">
+      <c r="F16" s="8">
         <v>2</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="9">
         <v>2</v>
       </c>
       <c r="I16" s="2"/>
@@ -6467,10 +7475,10 @@
       <c r="A17" s="2"/>
       <c r="C17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17">
+      <c r="F17" s="8">
         <v>4</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="9">
         <v>8</v>
       </c>
       <c r="I17" s="2"/>
@@ -6480,10 +7488,10 @@
       <c r="A18" s="2"/>
       <c r="C18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18">
-        <v>10</v>
-      </c>
-      <c r="G18" s="2">
+      <c r="F18" s="8">
+        <v>8</v>
+      </c>
+      <c r="G18" s="9">
         <v>32</v>
       </c>
       <c r="I18" s="2"/>

--- a/Asgn_Parallel_Sort.xlsx
+++ b/Asgn_Parallel_Sort.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MSIS\2_Spring22\Info_6205_Algo\Assignments\Assignment4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MSIS\2_Spring22\Info_6205_Algo\Assignments\Assignment3\Assignment3_Algo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36DE4D59-1D86-4EB5-9FDA-C9B8403A6750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE810109-1DF8-4A23-8E53-585A4CF88B39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D2C3BF45-F247-4C5A-9DD1-349AC937C189}"/>
   </bookViews>
@@ -6532,7 +6532,7 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
